--- a/Jp_Practice_Final/TestData/DataDrivenExcel.xlsx
+++ b/Jp_Practice_Final/TestData/DataDrivenExcel.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1DF2E-EEDF-40A4-921A-73CE85724378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="523"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -89,9 +82,6 @@
     <t>jpreddy911@gmail.com</t>
   </si>
   <si>
-    <t>Kala@1234</t>
-  </si>
-  <si>
     <t>FinalizePropeId_7549</t>
   </si>
   <si>
@@ -159,13 +149,16 @@
   </si>
   <si>
     <t>jp0080</t>
+  </si>
+  <si>
+    <t>Selenium@1423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,32 +534,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.85546875" style="5"/>
+    <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,15 +567,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -591,10 +584,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,15 +595,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -619,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,15 +620,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -644,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -667,15 +660,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -687,10 +680,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,30 +691,30 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
@@ -744,15 +737,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
@@ -764,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
@@ -787,15 +780,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6">
         <v>60813</v>
@@ -807,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -838,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -866,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,27 +870,27 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5">
         <v>9823</v>
@@ -906,15 +899,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5">
         <v>342</v>
@@ -923,15 +916,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5">
         <v>353</v>
@@ -940,15 +933,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5">
         <v>435</v>
@@ -957,15 +950,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5">
         <v>45345</v>
@@ -976,8 +969,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
-    <hyperlink ref="D26" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
